--- a/assets/Participants.xlsx
+++ b/assets/Participants.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,10 +31,10 @@
     <t>Attah-Darkwah</t>
   </si>
   <si>
-    <t>Muniru</t>
-  </si>
-  <si>
     <t>Nafisa</t>
+  </si>
+  <si>
+    <t>Fetiola</t>
   </si>
   <si>
     <t>Jessica</t>
@@ -71,20 +61,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +93,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -107,21 +112,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,10 +151,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -162,82 +181,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -249,244 +268,261 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="1" max="1" style="5" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>558723345</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>562374345</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>264427892</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>246402004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>597892321</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>244345678</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Participants.xlsx
+++ b/assets/Participants.xlsx
@@ -24,66 +24,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>phone_number</t>
   </si>
   <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Attah-Darkwah</t>
-  </si>
-  <si>
-    <t>Muniru</t>
-  </si>
-  <si>
-    <t>Nafisa</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Fafali</t>
-  </si>
-  <si>
-    <t>Dogbe</t>
-  </si>
-  <si>
-    <t>Prudence</t>
-  </si>
-  <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>Roxanne</t>
-  </si>
-  <si>
-    <t>0558723345</t>
-  </si>
-  <si>
-    <t>0562374345</t>
-  </si>
-  <si>
     <t>0246402004</t>
   </si>
   <si>
-    <t>0264427892</t>
-  </si>
-  <si>
-    <t>0597892321</t>
-  </si>
-  <si>
-    <t>0244345678</t>
+    <t>0504281298</t>
+  </si>
+  <si>
+    <t>0245438155</t>
+  </si>
+  <si>
+    <t>Paulyn</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>0507631899</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>0551616101</t>
+  </si>
+  <si>
+    <t>0591910642</t>
+  </si>
+  <si>
+    <t>0243857169</t>
+  </si>
+  <si>
+    <t>0509353706</t>
+  </si>
+  <si>
+    <t>0505259031</t>
+  </si>
+  <si>
+    <t>0207125600</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Barry and Bae</t>
+  </si>
+  <si>
+    <t>Naa Shome and Boo</t>
+  </si>
+  <si>
+    <t>Seth and Evette</t>
+  </si>
+  <si>
+    <t>William and Jennifer</t>
+  </si>
+  <si>
+    <t>Lawrence and Akita</t>
+  </si>
+  <si>
+    <t>Julliet, McGuiness, Irene and Naa Okine</t>
+  </si>
+  <si>
+    <t>Kelvin Broni</t>
+  </si>
+  <si>
+    <t>Couple Ticket</t>
+  </si>
+  <si>
+    <t>Single Ticket</t>
+  </si>
+  <si>
+    <t>A Table of 4 Ticket</t>
   </si>
 </sst>
 </file>
@@ -409,95 +427,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Participants.xlsx
+++ b/assets/Participants.xlsx
@@ -101,7 +101,7 @@
     <t>Single Ticket</t>
   </si>
   <si>
-    <t>A Table of 4 Ticket</t>
+    <t>Double-Date Ticket</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/assets/Participants.xlsx
+++ b/assets/Participants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Couple Ticket</t>
-  </si>
-  <si>
-    <t>Naa Shome</t>
-  </si>
-  <si>
-    <t>0249747986</t>
   </si>
   <si>
     <t>Rebecca Korankye</t>
@@ -95,13 +89,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -133,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -154,7 +148,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -466,7 +463,7 @@
   <cols>
     <col min="1" max="1" style="6" width="35.57642857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="23.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -480,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -502,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -513,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -524,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -535,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -546,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -554,17 +551,6 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/assets/Participants.xlsx
+++ b/assets/Participants.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+  <si>
+    <t>names</t>
   </si>
   <si>
     <t>phone_number</t>
@@ -25,13 +30,10 @@
     <t>status</t>
   </si>
   <si>
-    <t>Jephtali Ashong</t>
-  </si>
-  <si>
-    <t>0504281298</t>
-  </si>
-  <si>
-    <t>Single Ticket</t>
+    <t>0504281698</t>
+  </si>
+  <si>
+    <t>SINGLE TICKET</t>
   </si>
   <si>
     <t>Paulyn</t>
@@ -40,58 +42,194 @@
     <t>0245438155</t>
   </si>
   <si>
-    <t>Joshua-Bernard and Akita</t>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>0557658645</t>
+  </si>
+  <si>
+    <t>Christabel Quaye</t>
+  </si>
+  <si>
+    <t>0549078444</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>0243857169</t>
+  </si>
+  <si>
+    <t>0507312349</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>0503111979</t>
+  </si>
+  <si>
+    <t>0272197520</t>
+  </si>
+  <si>
+    <t>0505331366</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>0260397680</t>
+  </si>
+  <si>
+    <t>Selikem</t>
+  </si>
+  <si>
+    <t>0501458433</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>0201485526</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>0205071283</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>0505468814</t>
+  </si>
+  <si>
+    <t>Ewurama</t>
+  </si>
+  <si>
+    <t>0558395212</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>0243071690</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>0547073665</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>0249304539</t>
+  </si>
+  <si>
+    <t>Lilian</t>
+  </si>
+  <si>
+    <t>0557800147</t>
+  </si>
+  <si>
+    <t>Nafisa</t>
+  </si>
+  <si>
+    <t>0500063368</t>
+  </si>
+  <si>
+    <t>0552524252</t>
+  </si>
+  <si>
+    <t>Eunice Boatemaa</t>
+  </si>
+  <si>
+    <t>0552884102</t>
+  </si>
+  <si>
+    <t>Adjo D.</t>
+  </si>
+  <si>
+    <t>Yaw Baidoo</t>
+  </si>
+  <si>
+    <t>Esther W.</t>
+  </si>
+  <si>
+    <t>Jephthali A.</t>
+  </si>
+  <si>
+    <t>Djabey &amp; Jenny</t>
+  </si>
+  <si>
+    <t>0553282536</t>
+  </si>
+  <si>
+    <t>COUPLE TICKET</t>
+  </si>
+  <si>
+    <t>Joshua &amp; Akita</t>
   </si>
   <si>
     <t>0507631899</t>
   </si>
   <si>
-    <t>Couple Ticket</t>
-  </si>
-  <si>
-    <t>Rebecca Korankye</t>
-  </si>
-  <si>
-    <t>0557658645</t>
-  </si>
-  <si>
-    <t>Christabel Quaye</t>
-  </si>
-  <si>
-    <t>0549078544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evette Arvo-Quardoo </t>
-  </si>
-  <si>
-    <t>0551616109</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>0243857169</t>
+    <t>Bella &amp; Barry</t>
+  </si>
+  <si>
+    <t>0243274579</t>
+  </si>
+  <si>
+    <t>Richmond &amp; Flora</t>
+  </si>
+  <si>
+    <t>0501307084</t>
+  </si>
+  <si>
+    <t>Prudence &amp; Josiah</t>
+  </si>
+  <si>
+    <t>0541008074</t>
+  </si>
+  <si>
+    <t>Brenda &amp; Vitus</t>
+  </si>
+  <si>
+    <t>0555485437</t>
+  </si>
+  <si>
+    <t>Eunice &amp; Latifa</t>
+  </si>
+  <si>
+    <t>0503526213</t>
+  </si>
+  <si>
+    <t>DOUBLE-DATE TICKET</t>
+  </si>
+  <si>
+    <t>Juliet, Irene, Rachel &amp; Naa Shome</t>
+  </si>
+  <si>
+    <t>0509353706</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -127,41 +265,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -172,19 +307,19 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -196,7 +331,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -213,71 +348,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -305,7 +440,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -328,11 +463,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -341,13 +476,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -357,7 +492,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -366,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -375,7 +510,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -383,10 +518,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -455,18 +590,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,81 +614,334 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
